--- a/pump_data.xlsx
+++ b/pump_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnin\Documents\PowerBI_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69006DA1-31B7-4087-93AC-A5645FAC7A79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F2167-E3F5-4F78-BEC5-3F3A480A1878}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81EE36BE-162C-4E3D-AD00-9AF526926395}"/>
   </bookViews>
@@ -28,6 +28,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Fort McMurray</t>
+  </si>
+  <si>
+    <t>Edmonton</t>
+  </si>
+  <si>
+    <t>Grande Prairie</t>
+  </si>
+  <si>
+    <t>Lloydminster</t>
+  </si>
+  <si>
+    <t>Motor vibration (Hz)</t>
+  </si>
+  <si>
+    <t>Output pressure (kPa)</t>
+  </si>
+  <si>
+    <t>Input pressure (kPa)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,12 +408,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4163B5A-C293-41E0-AB3F-BE241B6776A2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>205</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>IF(A2=0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1190</v>
+      </c>
+      <c r="B3">
+        <v>206</v>
+      </c>
+      <c r="C3">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1213</v>
+      </c>
+      <c r="B4">
+        <v>203</v>
+      </c>
+      <c r="C4">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>